--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_69__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_69__Reeval_Halton_Modell_1.1.xlsx
@@ -5999,7 +5999,7 @@
                   <c:v>46.27375411987305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.17863845825195</c:v>
+                  <c:v>55.17864227294922</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.8178055882453918</c:v>
@@ -6047,7 +6047,7 @@
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.87200546264648</c:v>
+                  <c:v>38.87199783325195</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.8178055882453918</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>43.04401016235352</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46.44996643066406</c:v>
+                  <c:v>46.44995498657227</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.8178055882453918</c:v>
@@ -6131,16 +6131,16 @@
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.852461338043213</c:v>
+                  <c:v>2.852463006973267</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.61543655395508</c:v>
+                  <c:v>49.61543273925781</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41.72504043579102</c:v>
+                  <c:v>41.72503662109375</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>56.87110900878906</c:v>
@@ -6176,22 +6176,22 @@
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16.46843147277832</c:v>
+                  <c:v>16.46842956542969</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42.20467376708984</c:v>
+                  <c:v>42.20466995239258</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>30.98029518127441</c:v>
+                  <c:v>30.98028182983398</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43.35324859619141</c:v>
+                  <c:v>43.35324478149414</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>51.1086311340332</c:v>
@@ -6215,22 +6215,22 @@
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.97772884368896</c:v>
+                  <c:v>11.97773361206055</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>46.68277359008789</c:v>
+                  <c:v>46.68278121948242</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.57191848754883</c:v>
+                  <c:v>22.57192230224609</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>25.40889930725098</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>36.28127670288086</c:v>
+                  <c:v>36.28126525878906</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>59.68341445922852</c:v>
+                  <c:v>59.68341064453125</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.8178055882453918</c:v>
@@ -6242,13 +6242,13 @@
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.205401420593262</c:v>
+                  <c:v>3.205398559570312</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.8178055882453918</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45.8397331237793</c:v>
+                  <c:v>45.83972930908203</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.8178055882453918</c:v>
@@ -6260,10 +6260,10 @@
                   <c:v>32.13753509521484</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.2312650680542</c:v>
+                  <c:v>14.23126697540283</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>51.62558746337891</c:v>
+                  <c:v>51.62558364868164</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.8178055882453918</c:v>
@@ -6278,10 +6278,10 @@
                   <c:v>43.91141891479492</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>47.64346694946289</c:v>
+                  <c:v>47.64346313476562</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>22.85424041748047</c:v>
+                  <c:v>22.85423469543457</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.8178055882453918</c:v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.17863845825195</v>
+        <v>55.17864227294922</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>38.87200546264648</v>
+        <v>38.87199783325195</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>33.8124</v>
       </c>
       <c r="F42">
-        <v>46.44996643066406</v>
+        <v>46.44995498657227</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2.852461338043213</v>
+        <v>2.852463006973267</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>49.61543655395508</v>
+        <v>49.61543273925781</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>41.72504043579102</v>
+        <v>41.72503662109375</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>16.46843147277832</v>
+        <v>16.46842956542969</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>42.20467376708984</v>
+        <v>42.20466995239258</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>30.98029518127441</v>
+        <v>30.98028182983398</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>43.35324859619141</v>
+        <v>43.35324478149414</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>11.97772884368896</v>
+        <v>11.97773361206055</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>46.68277359008789</v>
+        <v>46.68278121948242</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>22.57191848754883</v>
+        <v>22.57192230224609</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>36.28127670288086</v>
+        <v>36.28126525878906</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>59.68341445922852</v>
+        <v>59.68341064453125</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>3.205401420593262</v>
+        <v>3.205398559570312</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>45.8397331237793</v>
+        <v>45.83972930908203</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>14.2312650680542</v>
+        <v>14.23126697540283</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>51.62558746337891</v>
+        <v>51.62558364868164</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>47.64346694946289</v>
+        <v>47.64346313476562</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>22.85424041748047</v>
+        <v>22.85423469543457</v>
       </c>
     </row>
     <row r="101" spans="1:6">
